--- a/.schema/MHR_SHOKUI.xlsx
+++ b/.schema/MHR_SHOKUI.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">SHOKUI_ID</t>
   </si>
@@ -106,6 +106,9 @@
     <t xml:space="preserve">一般</t>
   </si>
   <si>
+    <t xml:space="preserve">嘱託</t>
+  </si>
+  <si>
     <t xml:space="preserve">契約</t>
   </si>
   <si>
@@ -113,6 +116,15 @@
   </si>
   <si>
     <t xml:space="preserve">パート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アルバイト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">子会社</t>
+  </si>
+  <si>
+    <t xml:space="preserve">協力会社</t>
   </si>
 </sst>
 </file>
@@ -197,16 +209,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -333,469 +349,542 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="0" t="n">
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="0" t="n">
+      <c r="F3" s="3"/>
+      <c r="G3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="0" t="n">
+      <c r="F4" s="3"/>
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="0" t="n">
+      <c r="F5" s="3"/>
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="0" t="n">
+      <c r="F6" s="3"/>
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="0" t="n">
+      <c r="F7" s="3"/>
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="0" t="n">
+      <c r="F8" s="3"/>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="0" t="n">
+      <c r="F9" s="3"/>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="0" t="n">
+      <c r="F10" s="3"/>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="0" t="n">
+      <c r="F11" s="3"/>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="0" t="n">
+      <c r="F12" s="3"/>
+      <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="0" t="n">
+      <c r="F13" s="3"/>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="0" t="n">
+      <c r="F14" s="3"/>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="0" t="n">
+      <c r="F15" s="3"/>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="0" t="n">
+      <c r="F16" s="3"/>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="0" t="n">
+      <c r="F17" s="3"/>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="0" t="n">
+      <c r="F18" s="3"/>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="0" t="n">
+      <c r="F19" s="3"/>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="0" t="n">
+      <c r="F20" s="3"/>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="0" t="n">
+      <c r="F21" s="3"/>
+      <c r="G21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="0" t="n">
+      <c r="F22" s="3"/>
+      <c r="G22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="0" t="n">
+      <c r="F23" s="3"/>
+      <c r="G23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="1" t="n">
         <v>0</v>
       </c>
     </row>
